--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15858.07481273197</v>
+        <v>3155756.887733662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15858.07481273197</v>
+        <v>3155756.887733662</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48164.47206787622</v>
+        <v>2915500.954814758</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48164.47206787622</v>
+        <v>2915500.954814758</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190491443.199827</v>
+        <v>47714033.19275299</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12638.12506039405</v>
+        <v>1276689.995551075</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23174.69950594967</v>
+        <v>2195374.316866204</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33706.55324043042</v>
+        <v>3114058.638181334</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44842.09312397701</v>
+        <v>4031366.107669956</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55977.98116765853</v>
+        <v>4948742.861025437</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67113.86921134006</v>
+        <v>5866119.614380912</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78249.75725502158</v>
+        <v>6783496.367736388</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89385.64529870318</v>
+        <v>7700873.121091863</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100576.3428665957</v>
+        <v>8601655.928557016</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111742.7303675169</v>
+        <v>9522519.25516231</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122887.2788617791</v>
+        <v>10439036.61944247</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134031.8273560412</v>
+        <v>11355553.98372263</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145176.3758503034</v>
+        <v>12272071.3480028</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156320.9243445656</v>
+        <v>13188588.71228297</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167513.309616402</v>
+        <v>14089707.37283296</v>
       </c>
     </row>
   </sheetData>
